--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE0122B-6FDB-4BFA-A272-11EB014B71DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E654D-AE43-457D-83F4-67D74EFA7D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C62B3AD-FD19-43ED-8515-0095E96B2E3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4C62B3AD-FD19-43ED-8515-0095E96B2E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,30 +92,15 @@
     <t>War is coming?</t>
   </si>
   <si>
-    <t>Multiple reports from kingom scouts have reported an unusual amount of military activity in a neighbouring country. Numbers show has many as 5,000 young men have returned from other duties and missions by command of their king. An increase in smoke in the area, scientists believe to be linked to an increase in blacksmithing.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>There was serious tension at the last ally meeting of commanders.</t>
-  </si>
-  <si>
     <t>My troops at the border have also noticed more 'friendly' scouts than usual in the area.</t>
   </si>
   <si>
     <t>We haven't had a war in over 100 years, history shows another war may be due.</t>
   </si>
   <si>
-    <t>If history has taught us anything its that we must strike first</t>
-  </si>
-  <si>
-    <t>We need to stop trading with them immediately, in the past this has slowed down war.</t>
-  </si>
-  <si>
-    <t>By my accounts we have been exporting more food than usual there.</t>
-  </si>
-  <si>
     <t>If we are going to war, we may not have enough to hold off for a long period.</t>
   </si>
   <si>
@@ -128,18 +113,9 @@
     <t xml:space="preserve">There are reports of our neighbouring Kingdoms recruiting blacksmith talents. </t>
   </si>
   <si>
-    <t>My job is to create diplomatic ftiendships with neighbouring Kingdom, not making wars.</t>
-  </si>
-  <si>
-    <t>I guess it is time to request assistance from our allies!</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
-    <t>The reports are confirmed. The neighbouring kingom is amassing troops and it appears a war is coming.</t>
-  </si>
-  <si>
     <t>ACTION 1</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>This is too optimistic!</t>
   </si>
   <si>
-    <t>Are not we responsible to come up with a plan in times like this?</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
@@ -191,15 +164,6 @@
     <t>We are unprepared, defence at this point may be our best attack</t>
   </si>
   <si>
-    <t>We must catch them off guard.</t>
-  </si>
-  <si>
-    <t>From reports, attacking first uses more resources.</t>
-  </si>
-  <si>
-    <t>In my opinion attacking first is always the best move.</t>
-  </si>
-  <si>
     <t>We should all hide.</t>
   </si>
   <si>
@@ -233,24 +197,12 @@
     <t>We will face retaliation.</t>
   </si>
   <si>
-    <t>No food, no troops</t>
-  </si>
-  <si>
     <t>We should raise the prices.</t>
   </si>
   <si>
-    <t>Reports show our wealth will drop.</t>
-  </si>
-  <si>
     <t>We should save our own food.</t>
   </si>
   <si>
-    <t>We will be leaving many children to starve</t>
-  </si>
-  <si>
-    <t>There will be excessive surplus that leads to wastage.</t>
-  </si>
-  <si>
     <t>This will cause economy stagnation that reduces the Kingdom incomes.</t>
   </si>
   <si>
@@ -275,9 +227,6 @@
     <t>We should protect those needed for rebuilding.</t>
   </si>
   <si>
-    <t>This is a weak move.</t>
-  </si>
-  <si>
     <t>Great idea... if I come too.</t>
   </si>
   <si>
@@ -293,15 +242,9 @@
     <t>I do not see any harm doing this.</t>
   </si>
   <si>
-    <t xml:space="preserve">AT least we can protect the people lives and properties. </t>
-  </si>
-  <si>
     <t>The fortification is only temporary. We still have to end the war.</t>
   </si>
   <si>
-    <t>This is a move that could save our people, but not the Kingdom.</t>
-  </si>
-  <si>
     <t>There would not be enough time to evacuate all the people.</t>
   </si>
   <si>
@@ -309,6 +252,63 @@
   </si>
   <si>
     <t>MONASTERY</t>
+  </si>
+  <si>
+    <t>There was serious tension at the last ally meeting with the commanders.</t>
+  </si>
+  <si>
+    <t>If history has taught us anything, it's that we must strike first.</t>
+  </si>
+  <si>
+    <t>We need to stop trading with them immediately. In the past, this has slowed down war.</t>
+  </si>
+  <si>
+    <t>By my accounts, we have been exporting more food than usual there.</t>
+  </si>
+  <si>
+    <t>My job is to create diplomatic friendships with neighbouring Kingdom, not making wars.</t>
+  </si>
+  <si>
+    <t>I guess it's the time to request assistance from our allies!</t>
+  </si>
+  <si>
+    <t>The reports are confirmed. The neighbouring Kingdom is amassing troops and it appears a war is coming.</t>
+  </si>
+  <si>
+    <t>Multiple reports from the Kingdom scouts have reported an unusual amount of military activities in a neighbouring Kingdom. Numbers has shown as many as 5,000 young men have returned from other duties and missions by their king command's. More smoke has been sighted in the area, scientists believed there are linked to an increase in blacksmithing.</t>
+  </si>
+  <si>
+    <t>Aren't we advisors responsible to come up with a plan in times like this?</t>
+  </si>
+  <si>
+    <t>We must catch them off guard!</t>
+  </si>
+  <si>
+    <t>From most war reports, attacking first uses more resources.</t>
+  </si>
+  <si>
+    <t>In my opinion, attacking first is always the best move.</t>
+  </si>
+  <si>
+    <t>No food, no troops.</t>
+  </si>
+  <si>
+    <t>The forecast report shows that our wealth will drop.</t>
+  </si>
+  <si>
+    <t>We will be leaving many children to starve.</t>
+  </si>
+  <si>
+    <t>There will be excessive surplus that leads to food wastage.</t>
+  </si>
+  <si>
+    <t>This is a weak move!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least we can protect the people lives and properties. </t>
+  </si>
+  <si>
+    <t>This is a move that could save our people, but losing the Kingdom.</t>
   </si>
 </sst>
 </file>
@@ -488,13 +488,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,10 +522,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -547,8 +544,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,418 +867,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44981BA-9AE4-44E2-B14F-CB86D6B680A9}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="180" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="180" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="186" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="129" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="186" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="L14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="M14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1286,12 +1292,6 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E654D-AE43-457D-83F4-67D74EFA7D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFE771-8844-4F3B-874A-9384389259E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4C62B3AD-FD19-43ED-8515-0095E96B2E3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C62B3AD-FD19-43ED-8515-0095E96B2E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>MILITARY</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>This is a move that could save our people, but losing the Kingdom.</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring Kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
+  </si>
+  <si>
+    <t>Unfortunately, your decision to wait had allowed for the neighbouring Kingdom to spring a surprise attack on your Kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
+  </si>
+  <si>
+    <t>You gathered your army to spring a surprise attack on the enemy, catching them off guard and dealing significant damage to their army.</t>
+  </si>
+  <si>
+    <t>By cutting exports of food to the neighbouring Kingdom, you had cut a good percentage of their food supplies. This had affected the ability to support their own people and their war efforts.</t>
+  </si>
+  <si>
+    <t>Abandoning all hope and escaping to your bunker, you had left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, ultimately dying at the hands of the enemy general.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -525,11 +555,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -544,11 +580,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,40 +901,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44981BA-9AE4-44E2-B14F-CB86D6B680A9}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="17"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -943,39 +979,39 @@
       <c r="A3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1022,39 +1058,39 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1101,20 +1137,20 @@
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1161,20 +1197,20 @@
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="180" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1221,20 +1257,20 @@
       <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1277,14 +1313,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1292,6 +1422,12 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFE771-8844-4F3B-874A-9384389259E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C62B3AD-FD19-43ED-8515-0095E96B2E3E}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,18 +95,9 @@
     <t>We haven't had a war in over 100 years, history shows another war may be due.</t>
   </si>
   <si>
-    <t>If we are going to war, we may not have enough to hold off for a long period.</t>
-  </si>
-  <si>
     <t>We may suffer financially even if we manage to survive through the war.</t>
   </si>
   <si>
-    <t>There are traces of wastes and debris being usually high around our Kingdom borders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are reports of our neighbouring Kingdoms recruiting blacksmith talents. </t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
@@ -203,12 +188,6 @@
     <t>We should save our own food.</t>
   </si>
   <si>
-    <t>This will cause economy stagnation that reduces the Kingdom incomes.</t>
-  </si>
-  <si>
-    <t>This will break the food supply chain balance where the Kingdom will suffer heavy losses.</t>
-  </si>
-  <si>
     <t>The people should reduce the plant yield after the next harvest.</t>
   </si>
   <si>
@@ -254,9 +233,6 @@
     <t>MONASTERY</t>
   </si>
   <si>
-    <t>There was serious tension at the last ally meeting with the commanders.</t>
-  </si>
-  <si>
     <t>If history has taught us anything, it's that we must strike first.</t>
   </si>
   <si>
@@ -266,18 +242,9 @@
     <t>By my accounts, we have been exporting more food than usual there.</t>
   </si>
   <si>
-    <t>My job is to create diplomatic friendships with neighbouring Kingdom, not making wars.</t>
-  </si>
-  <si>
     <t>I guess it's the time to request assistance from our allies!</t>
   </si>
   <si>
-    <t>The reports are confirmed. The neighbouring Kingdom is amassing troops and it appears a war is coming.</t>
-  </si>
-  <si>
-    <t>Multiple reports from the Kingdom scouts have reported an unusual amount of military activities in a neighbouring Kingdom. Numbers has shown as many as 5,000 young men have returned from other duties and missions by their king command's. More smoke has been sighted in the area, scientists believed there are linked to an increase in blacksmithing.</t>
-  </si>
-  <si>
     <t>Aren't we advisors responsible to come up with a plan in times like this?</t>
   </si>
   <si>
@@ -308,9 +275,6 @@
     <t xml:space="preserve">At least we can protect the people lives and properties. </t>
   </si>
   <si>
-    <t>This is a move that could save our people, but losing the Kingdom.</t>
-  </si>
-  <si>
     <t>EVENT SUMMARY HEADER</t>
   </si>
   <si>
@@ -326,25 +290,55 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring Kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
-  </si>
-  <si>
-    <t>Unfortunately, your decision to wait had allowed for the neighbouring Kingdom to spring a surprise attack on your Kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
-  </si>
-  <si>
     <t>You gathered your army to spring a surprise attack on the enemy, catching them off guard and dealing significant damage to their army.</t>
   </si>
   <si>
-    <t>By cutting exports of food to the neighbouring Kingdom, you had cut a good percentage of their food supplies. This had affected the ability to support their own people and their war efforts.</t>
-  </si>
-  <si>
-    <t>Abandoning all hope and escaping to your bunker, you had left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, ultimately dying at the hands of the enemy general.</t>
+    <t>Multiple reports from the kingdom scouts have reported an unusual amount of military activity in a neighbouring kingdom. Numbers have shown as many as 5,000 young men have returned from other duties and missions by their King's command. More smoke than normal has been sighted in the area, scientists believed this to be linked to an increase in blacksmithing.</t>
+  </si>
+  <si>
+    <t>There was serious tension at the last meeting with ally commanders.</t>
+  </si>
+  <si>
+    <t>If we are going to war, we may not have enough to sustain our kingdom for very long.</t>
+  </si>
+  <si>
+    <t>Traces of waste and debris have been unusually high around our kingdom borders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are reports of our neighbouring kingdoms recruiting blacksmith talents. </t>
+  </si>
+  <si>
+    <t>My job is to create diplomatic friendship with neighbouring kingdoms, not starting war.</t>
+  </si>
+  <si>
+    <t>The reports are confirmed. The neighbouring kingdom is amassing troops and it appears a war is coming.</t>
+  </si>
+  <si>
+    <t>This will cause economy stagnation that reduces the kingdoms income.</t>
+  </si>
+  <si>
+    <t>This will break the food supply chain balance where the kingdom will suffer heavy losses.</t>
+  </si>
+  <si>
+    <t>This is a move that could save our people, but losing the kingdom.</t>
+  </si>
+  <si>
+    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
+  </si>
+  <si>
+    <t>Unfortunately, your decision to wait had allowed for the neighbouring kingdom to spring a surprise attack on your kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
+  </si>
+  <si>
+    <t>By cutting exports of food to the neighbouring kingdom, you had cut a good percentage of their food supplies. This had affected the ability to support their own people and their war efforts.</t>
+  </si>
+  <si>
+    <t>Abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, ultimately dying at the hands of the enemy general.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,17 +549,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -580,16 +574,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{77363E9D-1789-4ABD-AC0F-72C7555EBB34}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,50 +887,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44981BA-9AE4-44E2-B14F-CB86D6B680A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -975,50 +969,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" ht="180" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -1027,39 +1021,39 @@
         <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="22" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1073,348 +1067,349 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="180" x14ac:dyDescent="0.3">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="L12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="M12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="I14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="27" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="A17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1422,12 +1417,11 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB274F9D-4EBC-46C7-9DCD-1C494E391EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -323,9 +321,6 @@
     <t>This is a move that could save our people, but losing the kingdom.</t>
   </si>
   <si>
-    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
-  </si>
-  <si>
     <t>Unfortunately, your decision to wait had allowed for the neighbouring kingdom to spring a surprise attack on your kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
   </si>
   <si>
@@ -333,12 +328,15 @@
   </si>
   <si>
     <t>Abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, ultimately dying at the hands of the enemy general.</t>
+  </si>
+  <si>
+    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your kingdom.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,14 +550,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -574,16 +575,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,50 +885,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -969,45 +967,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1048,45 +1046,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1127,26 +1125,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1187,26 +1185,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1247,26 +1245,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" ht="152.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1307,109 +1305,108 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
+      <c r="B19" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1417,11 +1414,12 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB274F9D-4EBC-46C7-9DCD-1C494E391EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F7456C-E3A9-46CE-A0E4-81F8D66DC56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Waiting does nothing!</t>
   </si>
   <si>
-    <t>We should evacuate all the high class citizens by myself.</t>
-  </si>
-  <si>
     <t>This sounds peaceful but a mistake.</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>In the end, the people will suffer the most.</t>
   </si>
   <si>
-    <t>We should take the initiative to find our their intentions!</t>
-  </si>
-  <si>
     <t>I do not think we can react in time if we are unprepared for the worst.</t>
   </si>
   <si>
@@ -144,21 +138,12 @@
     <t>Start an attack first.</t>
   </si>
   <si>
-    <t>We are unprepared, defence at this point may be our best attack</t>
-  </si>
-  <si>
     <t>We should all hide.</t>
   </si>
   <si>
     <t>We should evacuate the children.</t>
   </si>
   <si>
-    <t>I do not think we have enough time and money to prepare the weapons.</t>
-  </si>
-  <si>
-    <t>This will escalated into an all out war! We will not survive with our current finance!</t>
-  </si>
-  <si>
     <t xml:space="preserve">We should not entertain the ego of the soldiers! </t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>We should not draw our sword against them!</t>
   </si>
   <si>
-    <t xml:space="preserve">My role as a foreign minister is to promote peace, not making war. </t>
-  </si>
-  <si>
     <t>ACTION 3</t>
   </si>
   <si>
@@ -189,12 +171,6 @@
     <t>The people should reduce the plant yield after the next harvest.</t>
   </si>
   <si>
-    <t>We could redirect the food distribution to further lands or countries.</t>
-  </si>
-  <si>
-    <t>We should not prioritize our interest over the people losses.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
@@ -225,9 +201,6 @@
     <t>There would not be enough time to evacuate all the people.</t>
   </si>
   <si>
-    <t>Hiding will not solve anything, you should send me to negiotiate our terms!</t>
-  </si>
-  <si>
     <t>MONASTERY</t>
   </si>
   <si>
@@ -240,12 +213,6 @@
     <t>By my accounts, we have been exporting more food than usual there.</t>
   </si>
   <si>
-    <t>I guess it's the time to request assistance from our allies!</t>
-  </si>
-  <si>
-    <t>Aren't we advisors responsible to come up with a plan in times like this?</t>
-  </si>
-  <si>
     <t>We must catch them off guard!</t>
   </si>
   <si>
@@ -270,9 +237,6 @@
     <t>This is a weak move!</t>
   </si>
   <si>
-    <t xml:space="preserve">At least we can protect the people lives and properties. </t>
-  </si>
-  <si>
     <t>EVENT SUMMARY HEADER</t>
   </si>
   <si>
@@ -291,46 +255,82 @@
     <t>You gathered your army to spring a surprise attack on the enemy, catching them off guard and dealing significant damage to their army.</t>
   </si>
   <si>
-    <t>Multiple reports from the kingdom scouts have reported an unusual amount of military activity in a neighbouring kingdom. Numbers have shown as many as 5,000 young men have returned from other duties and missions by their King's command. More smoke than normal has been sighted in the area, scientists believed this to be linked to an increase in blacksmithing.</t>
-  </si>
-  <si>
-    <t>There was serious tension at the last meeting with ally commanders.</t>
-  </si>
-  <si>
-    <t>If we are going to war, we may not have enough to sustain our kingdom for very long.</t>
-  </si>
-  <si>
-    <t>Traces of waste and debris have been unusually high around our kingdom borders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are reports of our neighbouring kingdoms recruiting blacksmith talents. </t>
-  </si>
-  <si>
-    <t>My job is to create diplomatic friendship with neighbouring kingdoms, not starting war.</t>
-  </si>
-  <si>
     <t>The reports are confirmed. The neighbouring kingdom is amassing troops and it appears a war is coming.</t>
   </si>
   <si>
-    <t>This will cause economy stagnation that reduces the kingdoms income.</t>
-  </si>
-  <si>
-    <t>This will break the food supply chain balance where the kingdom will suffer heavy losses.</t>
-  </si>
-  <si>
-    <t>This is a move that could save our people, but losing the kingdom.</t>
-  </si>
-  <si>
-    <t>Unfortunately, your decision to wait had allowed for the neighbouring kingdom to spring a surprise attack on your kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
-  </si>
-  <si>
-    <t>By cutting exports of food to the neighbouring kingdom, you had cut a good percentage of their food supplies. This had affected the ability to support their own people and their war efforts.</t>
-  </si>
-  <si>
-    <t>Abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, ultimately dying at the hands of the enemy general.</t>
-  </si>
-  <si>
-    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your kingdom.</t>
+    <t>Multiple reports from the Kingdom's scouts have reported an unusual amount of military activity in a neighbouring kingdom. Numbers have shown as many as 5,000 young men have returned from other duties and missions by their king's command. More smoke than normal has been sighted in the area, scientists believe this to be linked to an increase in blacksmithing.</t>
+  </si>
+  <si>
+    <t>There was serious tension at the last meeting with allied commanders.</t>
+  </si>
+  <si>
+    <t>If we are going to war, we may not have enough to sustain our Kingdom for very long.</t>
+  </si>
+  <si>
+    <t>Traces of waste and debris have been unusually high around our Kingdom's borders.</t>
+  </si>
+  <si>
+    <t>My job is to create diplomatic friendships with neighbouring kingdoms, not start wars.</t>
+  </si>
+  <si>
+    <t>I guess it's time to request assistance from our allies!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are reports of the neighbouring kingdom recruiting talented blacksmiths. </t>
+  </si>
+  <si>
+    <t>We should evacuate all the high class citizens like myself.</t>
+  </si>
+  <si>
+    <t>We should take the initiative and try to find out their intentions!</t>
+  </si>
+  <si>
+    <t>Aren't we advisors responsible with coming up with a plan in times like this?</t>
+  </si>
+  <si>
+    <t>We are unprepared, at this point defence may be our best attack.</t>
+  </si>
+  <si>
+    <t>I do not think we have enough time and money to prepare all the weapons.</t>
+  </si>
+  <si>
+    <t>This will escalate into an all out war! We will not survive with our current financial situation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My role as a foreign minister is to promote peace, not make war. </t>
+  </si>
+  <si>
+    <t>This will cause economic stagnation that reduces the Kingdom's income.</t>
+  </si>
+  <si>
+    <t>This will break the food supply chain balance where the Kingdom will suffer heavy losses.</t>
+  </si>
+  <si>
+    <t>We could redirect the food distribution to other kingdoms.</t>
+  </si>
+  <si>
+    <t>We should not prioritise our interest over the loss of people.</t>
+  </si>
+  <si>
+    <t>This is a move that could save our people, but lose the Kingdom.</t>
+  </si>
+  <si>
+    <t>Hiding will not solve anything, you should send me to negotiate our terms!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least we can protect the people's lives and belongings. </t>
+  </si>
+  <si>
+    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
+  </si>
+  <si>
+    <t>Unfortunately, your decision to wait had allowed for the neighbouring kingdom to spring a surprise attack on your Kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
+  </si>
+  <si>
+    <t>By cutting off exports of food to the neighbouring kingdom, you reduced a good percentage of their food supplies. This has affected their ability to support their own people and their war efforts.</t>
+  </si>
+  <si>
+    <t>By abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, and you ultimately died at the hands of the enemy general.</t>
   </si>
 </sst>
 </file>
@@ -550,17 +550,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -575,8 +572,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
@@ -903,30 +903,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -969,48 +969,48 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -1019,70 +1019,70 @@
         <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1101,312 +1101,313 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1414,12 +1415,11 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/WarIsComing.xlsx
+++ b/Stories/WarIsComing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F7456C-E3A9-46CE-A0E4-81F8D66DC56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299C91A-9938-4A66-A3B0-55215A112C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,18 +168,12 @@
     <t>We should save our own food.</t>
   </si>
   <si>
-    <t>The people should reduce the plant yield after the next harvest.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
     <t>Go to the bunker.</t>
   </si>
   <si>
-    <t>We should protect those needed for rebuilding.</t>
-  </si>
-  <si>
     <t>Great idea... if I come too.</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>This will cause economic stagnation that reduces the Kingdom's income.</t>
   </si>
   <si>
-    <t>This will break the food supply chain balance where the Kingdom will suffer heavy losses.</t>
-  </si>
-  <si>
     <t>We could redirect the food distribution to other kingdoms.</t>
   </si>
   <si>
@@ -321,16 +312,25 @@
     <t xml:space="preserve">At least we can protect the people's lives and belongings. </t>
   </si>
   <si>
-    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and is fully intent on taking over your Kingdom.</t>
-  </si>
-  <si>
     <t>Unfortunately, your decision to wait had allowed for the neighbouring kingdom to spring a surprise attack on your Kingdom, causing significant damage and leaving you no opportunity to defend or counter attack.</t>
   </si>
   <si>
     <t>By cutting off exports of food to the neighbouring kingdom, you reduced a good percentage of their food supplies. This has affected their ability to support their own people and their war efforts.</t>
   </si>
   <si>
-    <t>By abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, and you ultimately died at the hands of the enemy general.</t>
+    <t>By abandoning all hope and escaping to your bunker, you left all your people to die at the hands of the enemy. However, hiding did not matter as enemy spies revealed the location of your bunker, and you ultimately died at the hands of the enemy commander.</t>
+  </si>
+  <si>
+    <t>Despite your best efforts to send some of your men over to negotiate with the neighbouring kingdom, they refused to listen and are fully intent on taking over your Kingdom.</t>
+  </si>
+  <si>
+    <t>We should prioritise protecting those needed for rebuilding our society.</t>
+  </si>
+  <si>
+    <t>The people should reduce the crop yield after the next harvest.</t>
+  </si>
+  <si>
+    <t>This will break the food supply chain balance and the Kingdom will suffer heavy losses.</t>
   </si>
 </sst>
 </file>
@@ -550,14 +550,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -572,11 +575,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,38 +895,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -969,48 +969,48 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="B4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -1019,70 +1019,70 @@
         <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="B6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1101,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>33</v>
@@ -1122,43 +1122,43 @@
         <v>34</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>37</v>
@@ -1167,10 +1167,10 @@
         <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>39</v>
@@ -1182,27 +1182,27 @@
         <v>41</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1212,202 +1212,201 @@
         <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B4:M4"/>
@@ -1415,11 +1414,12 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
